--- a/PCSConsultancy_Activity_Tracker.xlsx
+++ b/PCSConsultancy_Activity_Tracker.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Sl. No</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Acitivity Title</t>
+  </si>
+  <si>
+    <t>Activity Description</t>
+  </si>
+  <si>
+    <t>#Error</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>Error Fixed</t>
+  </si>
+  <si>
+    <t>Activity Status</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +87,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +176,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +384,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PCSConsultancy_Activity_Tracker.xlsx
+++ b/PCSConsultancy_Activity_Tracker.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Sl. No</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>Deadline</t>
+  </si>
+  <si>
+    <t>Project Senario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created project structure,activity tracker file and empty documentation file </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -79,8 +91,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,22 +404,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -423,6 +450,35 @@
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/PCSConsultancy_Activity_Tracker.xlsx
+++ b/PCSConsultancy_Activity_Tracker.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PCSConsultancy_Activity_Tracker.xlsx
+++ b/PCSConsultancy_Activity_Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Sl. No</t>
   </si>
@@ -56,6 +56,39 @@
   </si>
   <si>
     <t>Nil</t>
+  </si>
+  <si>
+    <t>Sql code</t>
+  </si>
+  <si>
+    <t>Created 5 tables in mysql and model classes</t>
+  </si>
+  <si>
+    <t>Coded all model classes</t>
+  </si>
+  <si>
+    <t>6.00 PM</t>
+  </si>
+  <si>
+    <t>Coded all dao classes ,config,entry  package</t>
+  </si>
+  <si>
+    <t>daoImpl package code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dao package code</t>
+  </si>
+  <si>
+    <t>Model package code</t>
+  </si>
+  <si>
+    <t>coded all daoImpl classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining classes code </t>
+  </si>
+  <si>
+    <t>coded all contoller package classes and tested CRUD menu</t>
   </si>
 </sst>
 </file>
@@ -91,13 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,17 +441,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="66.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
@@ -430,25 +467,25 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -460,9 +497,9 @@
         <v>44146</v>
       </c>
       <c r="C2" s="3">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="D2" t="s">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
@@ -477,8 +514,171 @@
       <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="5">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44150</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44154</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44155</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1">
+        <v>44156</v>
       </c>
     </row>
   </sheetData>

--- a/PCSConsultancy_Activity_Tracker.xlsx
+++ b/PCSConsultancy_Activity_Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Sl. No</t>
   </si>
@@ -89,6 +89,75 @@
   </si>
   <si>
     <t>coded all contoller package classes and tested CRUD menu</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>HRAHome</t>
+  </si>
+  <si>
+    <t>EMPHome</t>
+  </si>
+  <si>
+    <t>created structure of login frame</t>
+  </si>
+  <si>
+    <t>created structure of HR frame</t>
+  </si>
+  <si>
+    <t>created structure of employee frame</t>
+  </si>
+  <si>
+    <t>PMEHome</t>
+  </si>
+  <si>
+    <t>created structure of project manager frame</t>
+  </si>
+  <si>
+    <t>Frame test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented functions of Login </t>
+  </si>
+  <si>
+    <t>testing of login frame</t>
+  </si>
+  <si>
+    <t>Implemented all functions of HRA home page</t>
+  </si>
+  <si>
+    <t>Implemented all functions of EMP home page</t>
+  </si>
+  <si>
+    <t>Implemented all functions of PME home page</t>
+  </si>
+  <si>
+    <t>Implementation of login frame</t>
+  </si>
+  <si>
+    <t>Implementation of HRA frame</t>
+  </si>
+  <si>
+    <t>Implementation of EMP frame</t>
+  </si>
+  <si>
+    <t>Implementation of PME frame</t>
+  </si>
+  <si>
+    <t>view package</t>
+  </si>
+  <si>
+    <t>completed view package</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>documentation</t>
   </si>
 </sst>
 </file>
@@ -124,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,6 +206,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,16 +511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
     <col min="5" max="5" width="66.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="10.109375" customWidth="1"/>
@@ -681,6 +751,198 @@
         <v>44156</v>
       </c>
     </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44156</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44158</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44160</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44162</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44164</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44166</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44168</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCSConsultancy_Activity_Tracker.xlsx
+++ b/PCSConsultancy_Activity_Tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
   <si>
     <t>Sl. No</t>
   </si>
@@ -151,13 +151,10 @@
     <t>completed view package</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>documentation</t>
+    <t xml:space="preserve">front end and back end </t>
+  </si>
+  <si>
+    <t>front end and back end process</t>
   </si>
 </sst>
 </file>
@@ -514,17 +511,20 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
-    <col min="5" max="5" width="66.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -764,8 +764,20 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44158</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -781,8 +793,20 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44160</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -798,8 +822,20 @@
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -815,8 +851,20 @@
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44164</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -832,8 +880,20 @@
       <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44166</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -846,11 +906,23 @@
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44167</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -860,14 +932,26 @@
       <c r="B14" s="1">
         <v>44167</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J14" s="1">
+        <v>44168</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -877,14 +961,26 @@
       <c r="B15" s="1">
         <v>44168</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="J15" s="6">
+        <v>44170</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -894,54 +990,89 @@
       <c r="B16" s="6">
         <v>44170</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>44172</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
+      <c r="B18" s="1">
+        <v>44175</v>
+      </c>
       <c r="D18" t="s">
         <v>45</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
